--- a/medicine/Enfance/Nobi_nobi_!/Nobi_nobi_!.xlsx
+++ b/medicine/Enfance/Nobi_nobi_!/Nobi_nobi_!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 nobi nobi ! est une maison d’édition française de livres jeunesse spécialisée sur le Japon lancée en mars 2010 avec la traduction d’albums illustrés japonais ou la création d’albums originaux inspirés par le Japon.
@@ -513,10 +525,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">nobi nobi ! est créé administrativement en juin 2009 par Olivier Pacciani, ancien directeur artistique d'une maison d’édition de manga, et Pierre-Alain Dufour, ancien ingénieur et responsable culturel du festival Japan Expo[réf. nécessaire].
-En 2016, Hachette Livre fait l'acquisition du catalogue de nobi nobi !, qui fusionne avec celui de sa collection manga, Pika Édition[1],[2].
+En 2016, Hachette Livre fait l'acquisition du catalogue de nobi nobi !, qui fusionne avec celui de sa collection manga, Pika Édition,.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Le nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« nobi nobi » est une onomatopée japonaise que l'on peut traduire par « être à l'aise »[réf. nécessaire]. 
 </t>
@@ -578,8 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1,2,3 Soleil
-Tatsuya Miyanishi
+          <t>1,2,3 Soleil</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tatsuya Miyanishi
 Papa Renard en croque pour les cochons, Tatsuya Miyanishi
 Chic, des bonbons magiques !, Tatsuya Miyanishi
 Joyeux Noël monsieur Loup !, Tatsuya Miyanishi
@@ -610,9 +631,43 @@
 Mamie "Faut pas gâcher", Mariko Shinju
 Il y a du monde !, Tomoko Ohmura
 Et hop la baleine !, Rintarô Uchida et Kôji Yamamura
-J'attends maman, Izumi Motoshita et Chiaki Okada
-Soleil flottant
-Princesse Pivoine, Ein Lee
+J'attends maman, Izumi Motoshita et Chiaki Okada</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nobi_nobi_!</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nobi_nobi_!</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Soleil flottant</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Princesse Pivoine, Ein Lee
 Le Secret de la grue blanche, Ein Lee et Christelle Huet-Gomez
 La Princesse au bol enchanté, Ein Lee et Samantha Bailly
 Le mot qui arrêta la guerre, Ein Lee et Audrey Alwett
@@ -620,9 +675,43 @@
 Kaguya, princesse au clair de lune, Shiitake et Alice Brière-Haquet
 L’Oiseau rouge, Nancy Zhang et Céline Lavignette-Ammoun
 Hôichi - La légende des samouraïs disparus, Hiroshi Funaki et Yoshimi Saitô, d'après Lafcadio Hearn
-Urashima Tarô au royaume des saisons perdues, Fuzichoco et La Luciole Masquée
-Hors collection
-La Maison en petits cubes, de Kunio Katô et Kenya Hirata
+Urashima Tarô au royaume des saisons perdues, Fuzichoco et La Luciole Masquée</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nobi_nobi_!</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nobi_nobi_!</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hors collection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Maison en petits cubes, de Kunio Katô et Kenya Hirata
 Le Voyage de Pippo, Satoe Tone
 Où est mon étoile ?, Satoe Tone
 1000 vents, 1000 violoncelles, Hideko Ise
@@ -644,12 +733,80 @@
 Le Petit Chaperon rouge, Michiyo Hayano et Shinobu Uemura, d'après le conte de Charles Perrault
 Cendrillon, Michiyo Hayano et Shinobu Uemura, d'après le conte des Frères Grimm
 Alice au pays des merveilles, Michiyo Hayano et Shinobu Uemura, d'après le roman de Lewis Carroll
-Blanche-Neige, Michiyo Hayano et Shinobu Uemura, d'après le conte des Frères Grimm
-Jan-Ken-Pon
-Détective Popotin mène l'enquête..., Troll
-Détective Popotin et le diamant arc-en-ciel, Troll
-Manga
-Séries
+Blanche-Neige, Michiyo Hayano et Shinobu Uemura, d'après le conte des Frères Grimm</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nobi_nobi_!</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nobi_nobi_!</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Jan-Ken-Pon</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Détective Popotin mène l'enquête..., Troll
+Détective Popotin et le diamant arc-en-ciel, Troll</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nobi_nobi_!</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nobi_nobi_!</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Manga</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Séries
 Pan'Pan Panda, une vie en douceur, de Sato Horokura (8 volumes, série complète)
 Mega Man ZX, de Shin Ogino (2 volumes, série complète)
 Miaou ! Le quotidien de Moustic, de Minori Kakio (4 volumes, série complète)
